--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,52 +46,52 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
@@ -112,88 +112,82 @@
     <t>great</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>better</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>true</t>
+    <t>really</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>really</t>
+    <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>’</t>
@@ -557,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +562,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +644,13 @@
         <v>29</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8942307692307693</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.7894736842105263</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
@@ -876,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7826086956521739</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.6933333333333334</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.725</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.6896551724137931</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,10 +1023,10 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.65</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.5416666666666666</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.5277777777777778</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6808510638297872</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.5185185185185185</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6376811594202898</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1294,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.3414634146341464</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6071428571428571</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.3260869565217391</v>
+        <v>0.2987249544626594</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5128205128205128</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.3220338983050847</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1444,13 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.3014571948998179</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L19">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>767</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.2950819672131147</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1544,13 @@
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.2307692307692308</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,37 +1570,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06143344709897611</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.1882352941176471</v>
+        <v>0.2</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,7 +1620,7 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.1690140845070423</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L23">
         <v>12</v>
@@ -1644,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1652,13 +1646,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.1643835616438356</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1670,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1678,25 +1672,25 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.1578947368421053</v>
+        <v>0.09461966604823747</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1704,13 +1698,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.1203703703703704</v>
+        <v>0.08504398826979472</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1722,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>475</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1730,13 +1724,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.09487951807228916</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1748,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>601</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1756,13 +1750,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.08833922261484099</v>
+        <v>0.07981927710843373</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1774,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>258</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1782,13 +1776,13 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.08759124087591241</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1800,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>125</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1808,25 +1802,25 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.08211143695014662</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>313</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1834,13 +1828,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.07467532467532467</v>
+        <v>0.06105990783410138</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1852,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>570</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1860,77 +1854,25 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.0576036866359447</v>
+        <v>0.04370179948586118</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="L33">
-        <v>18</v>
-      </c>
-      <c r="M33">
-        <v>18</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34">
-        <v>0.03461538461538462</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>0.96</v>
-      </c>
-      <c r="O34">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
